--- a/Complete-spreadsheets/EO/F8-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/F8-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D087F8-909B-46F6-9FCC-B903695DD4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32298B6F-8B35-4DFB-95FB-23C5CA1F5C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,23 +505,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>39.981477222587642</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5.3016625685719427</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.5290584989347469</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.3379033805653018</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.260084175204458</v>
+      <c r="B2" s="4">
+        <v>105.1805812918001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14.50405959279864</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.7525800245116452</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.8237558752696401</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.796512443750681</v>
       </c>
       <c r="G2">
-        <v>53.410185845864092</v>
+        <v>128.05748922813069</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -544,22 +544,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>105.1805812918001</v>
+        <v>19.09768515960074</v>
       </c>
       <c r="C3" s="4">
-        <v>14.50405959279864</v>
+        <v>4.6400533656614193</v>
       </c>
       <c r="D3" s="4">
-        <v>2.7525800245116452</v>
+        <v>3.2172366715492862</v>
       </c>
       <c r="E3" s="4">
-        <v>2.8237558752696401</v>
+        <v>2.8203917853205032</v>
       </c>
       <c r="F3" s="4">
-        <v>2.796512443750681</v>
+        <v>4.8320451528373942</v>
       </c>
       <c r="G3">
-        <v>128.05748922813069</v>
+        <v>34.607412134969351</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>19.09768515960074</v>
+        <v>24.209633996610101</v>
       </c>
       <c r="C4" s="4">
-        <v>4.6400533656614193</v>
+        <v>5.1107970882218972</v>
       </c>
       <c r="D4" s="4">
-        <v>3.2172366715492862</v>
+        <v>3.5692069503078301</v>
       </c>
       <c r="E4" s="4">
-        <v>2.8203917853205032</v>
+        <v>3.0687700465718488</v>
       </c>
       <c r="F4" s="4">
-        <v>4.8320451528373942</v>
+        <v>5.4972435026265618</v>
       </c>
       <c r="G4">
-        <v>34.607412134969351</v>
+        <v>41.455651584338227</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -619,23 +619,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>101.0842426037901</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18.967295444071361</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.3244801652160012</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.9955368376387399</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.412283158696459</v>
+      <c r="B5" s="4">
+        <v>52.644720186175292</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13.971866802730039</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.9948014594888348</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.6934009608867946</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.5482452474866264</v>
       </c>
       <c r="G5">
-        <v>126.78383820941271</v>
+        <v>83.853034656767576</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -658,22 +658,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>24.209633996610101</v>
+        <v>138.78191686591211</v>
       </c>
       <c r="C6" s="4">
-        <v>5.1107970882218972</v>
+        <v>21.496999988138281</v>
       </c>
       <c r="D6" s="4">
-        <v>3.5692069503078301</v>
+        <v>4.4391174469215473</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0687700465718488</v>
+        <v>2.192790621022815</v>
       </c>
       <c r="F6" s="4">
-        <v>5.4972435026265618</v>
+        <v>3.1969817134741541</v>
       </c>
       <c r="G6">
-        <v>41.455651584338227</v>
+        <v>170.1078066354689</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -695,23 +695,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>7.9674277853396953</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.6520473302187408</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.865482515707463</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.0185080185836757</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.7447816384681651</v>
+      <c r="B7" s="4">
+        <v>76.319446156433543</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.4496794112410107</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.1788621492263083</v>
+      </c>
+      <c r="E7" s="4">
+        <v>23.198340281153261</v>
+      </c>
+      <c r="F7" s="4">
+        <v>64.655072692033215</v>
       </c>
       <c r="G7">
-        <v>25.248247288317749</v>
+        <v>174.80140069008729</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -734,22 +734,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>52.644720186175292</v>
+        <v>44.327226306114433</v>
       </c>
       <c r="C8" s="4">
-        <v>13.971866802730039</v>
+        <v>57.262616905239213</v>
       </c>
       <c r="D8" s="4">
-        <v>3.9948014594888348</v>
+        <v>5.6162515247560698</v>
       </c>
       <c r="E8" s="4">
-        <v>5.6934009608867946</v>
+        <v>4.0343160530580846</v>
       </c>
       <c r="F8" s="4">
-        <v>7.5482452474866264</v>
+        <v>4.8513654418321028</v>
       </c>
       <c r="G8">
-        <v>83.853034656767576</v>
+        <v>116.0917762309999</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>138.78191686591211</v>
+        <v>132.0684623097012</v>
       </c>
       <c r="C9" s="4">
-        <v>21.496999988138281</v>
+        <v>9.4336228239358988</v>
       </c>
       <c r="D9" s="4">
-        <v>4.4391174469215473</v>
+        <v>5.6292962375312108</v>
       </c>
       <c r="E9" s="4">
-        <v>2.192790621022815</v>
+        <v>6.3168924035040739</v>
       </c>
       <c r="F9" s="4">
-        <v>3.1969817134741541</v>
+        <v>9.2947297291835032</v>
       </c>
       <c r="G9">
-        <v>170.1078066354689</v>
+        <v>162.7430035038559</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -809,23 +809,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>137.0632167017296</v>
-      </c>
-      <c r="C10" s="3">
-        <v>35.839037628601353</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.1596876655562589</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.8191775996352701</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.6875317895145932</v>
+      <c r="B10" s="4">
+        <v>58.476671560380431</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50.635685801250652</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.552468598915743</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.3896382051972056</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15.65055866022217</v>
       </c>
       <c r="G10">
-        <v>184.56865138503699</v>
+        <v>137.70502282596621</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -848,22 +848,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>76.319446156433543</v>
+        <v>198.84432713711601</v>
       </c>
       <c r="C11" s="4">
-        <v>5.4496794112410107</v>
+        <v>15.31866870581395</v>
       </c>
       <c r="D11" s="4">
-        <v>5.1788621492263083</v>
+        <v>7.3952451243264292</v>
       </c>
       <c r="E11" s="4">
-        <v>23.198340281153261</v>
+        <v>4.3498986046700914</v>
       </c>
       <c r="F11" s="4">
-        <v>64.655072692033215</v>
+        <v>4.9148522280351354</v>
       </c>
       <c r="G11">
-        <v>174.80140069008729</v>
+        <v>230.8229917999615</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -885,23 +885,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>286.67611929658051</v>
-      </c>
-      <c r="C12" s="3">
-        <v>38.453123007075739</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.4324036775486926</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5.5652426293633539</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6.9103119328958016</v>
+      <c r="B12" s="4">
+        <v>19.10458997079834</v>
+      </c>
+      <c r="C12" s="4">
+        <v>86.97175351366252</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.0630312526591279</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5089125721859471</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.9797980920600544</v>
       </c>
       <c r="G12">
-        <v>343.03720054346411</v>
+        <v>122.62808540136599</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -924,22 +924,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>44.327226306114433</v>
+        <v>149.7613566089781</v>
       </c>
       <c r="C13" s="4">
-        <v>57.262616905239213</v>
+        <v>11.943051967024839</v>
       </c>
       <c r="D13" s="4">
-        <v>5.6162515247560698</v>
+        <v>8.8427852966748262</v>
       </c>
       <c r="E13" s="4">
-        <v>4.0343160530580846</v>
+        <v>3.516219800021966</v>
       </c>
       <c r="F13" s="4">
-        <v>4.8513654418321028</v>
+        <v>3.0383698382270681</v>
       </c>
       <c r="G13">
-        <v>116.0917762309999</v>
+        <v>177.10178351092679</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>132.0684623097012</v>
+        <v>180.66466891346761</v>
       </c>
       <c r="C14" s="4">
-        <v>9.4336228239358988</v>
+        <v>88.660136727787474</v>
       </c>
       <c r="D14" s="4">
-        <v>5.6292962375312108</v>
+        <v>8.8688254978661121</v>
       </c>
       <c r="E14" s="4">
-        <v>6.3168924035040739</v>
+        <v>9.8226889923470218</v>
       </c>
       <c r="F14" s="4">
-        <v>9.2947297291835032</v>
+        <v>18.853433405349879</v>
       </c>
       <c r="G14">
-        <v>162.7430035038559</v>
+        <v>306.86975353681822</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1005,23 +1005,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>261.62856568693951</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44.584497217001463</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.0958200777496057</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11.77266209310533</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10.14820503261334</v>
+      <c r="B15" s="4">
+        <v>288.60156990445478</v>
+      </c>
+      <c r="C15" s="4">
+        <v>60.71656800556471</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.1569871530421931</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.1071563079490563</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7.9744621346677933</v>
       </c>
       <c r="G15">
-        <v>334.22975010740919</v>
+        <v>371.55674350567858</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1047,22 +1047,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>58.476671560380431</v>
+        <v>29.81524263833029</v>
       </c>
       <c r="C16" s="4">
-        <v>50.635685801250652</v>
+        <v>8.1853125646136107</v>
       </c>
       <c r="D16" s="4">
-        <v>6.552468598915743</v>
+        <v>9.6491134344592169</v>
       </c>
       <c r="E16" s="4">
-        <v>6.3896382051972056</v>
+        <v>3.8558676547553841</v>
       </c>
       <c r="F16" s="4">
-        <v>15.65055866022217</v>
+        <v>3.0779581322965059</v>
       </c>
       <c r="G16">
-        <v>137.70502282596621</v>
+        <v>54.583494424455012</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1088,22 +1088,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>198.84432713711601</v>
+        <v>31.94975268472804</v>
       </c>
       <c r="C17" s="4">
-        <v>15.31866870581395</v>
+        <v>59.310719726376931</v>
       </c>
       <c r="D17" s="4">
-        <v>7.3952451243264292</v>
+        <v>9.7117203903630926</v>
       </c>
       <c r="E17" s="4">
-        <v>4.3498986046700914</v>
+        <v>6.1502637128564936</v>
       </c>
       <c r="F17" s="4">
-        <v>4.9148522280351354</v>
+        <v>9.9734900852836521</v>
       </c>
       <c r="G17">
-        <v>230.8229917999615</v>
+        <v>117.0959465996082</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1125,23 +1125,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>34.310157499772927</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7.8537264850598882</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7.4366716624603599</v>
-      </c>
-      <c r="E18" s="3">
-        <v>15.78426664076783</v>
-      </c>
-      <c r="F18" s="3">
-        <v>15.514275159202169</v>
+      <c r="B18" s="4">
+        <v>65.46043449099048</v>
+      </c>
+      <c r="C18" s="4">
+        <v>20.734158398029411</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13.49303666475314</v>
+      </c>
+      <c r="E18" s="4">
+        <v>18.572927090301199</v>
+      </c>
+      <c r="F18" s="4">
+        <v>35.222399060961813</v>
       </c>
       <c r="G18">
-        <v>80.899097447263159</v>
+        <v>153.48295570503601</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>28</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1164,22 +1164,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>19.10458997079834</v>
+        <v>143.79961507722041</v>
       </c>
       <c r="C19" s="4">
-        <v>86.97175351366252</v>
+        <v>71.507155870093868</v>
       </c>
       <c r="D19" s="4">
-        <v>8.0630312526591279</v>
+        <v>15.429884680958191</v>
       </c>
       <c r="E19" s="4">
-        <v>3.5089125721859471</v>
+        <v>9.7117163526209591</v>
       </c>
       <c r="F19" s="4">
-        <v>4.9797980920600544</v>
+        <v>16.202824095253469</v>
       </c>
       <c r="G19">
-        <v>122.62808540136599</v>
+        <v>256.65119607614679</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1202,22 +1202,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>149.7613566089781</v>
+        <v>233.86573170279149</v>
       </c>
       <c r="C20" s="4">
-        <v>11.943051967024839</v>
+        <v>68.19021458932356</v>
       </c>
       <c r="D20" s="4">
-        <v>8.8427852966748262</v>
+        <v>15.65676498149273</v>
       </c>
       <c r="E20" s="4">
-        <v>3.516219800021966</v>
+        <v>11.97526322811893</v>
       </c>
       <c r="F20" s="4">
-        <v>3.0383698382270681</v>
+        <v>19.744465684278691</v>
       </c>
       <c r="G20">
-        <v>177.10178351092679</v>
+        <v>349.43244018600552</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>180.66466891346761</v>
+        <v>84.224582241512081</v>
       </c>
       <c r="C21" s="4">
-        <v>88.660136727787474</v>
+        <v>243.8629351197234</v>
       </c>
       <c r="D21" s="4">
-        <v>8.8688254978661121</v>
+        <v>16.207771527827511</v>
       </c>
       <c r="E21" s="4">
-        <v>9.8226889923470218</v>
+        <v>8.5984115619792512</v>
       </c>
       <c r="F21" s="4">
-        <v>18.853433405349879</v>
+        <v>6.656226771786045</v>
       </c>
       <c r="G21">
-        <v>306.86975353681822</v>
+        <v>359.54992722282827</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1277,23 +1277,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>63.153111760883313</v>
-      </c>
-      <c r="C22" s="3">
-        <v>25.35703763766767</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9.1047326362347398</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.7876187975045346</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4.8991294959124616</v>
+      <c r="B22" s="4">
+        <v>31.9397724484657</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10.57036106713292</v>
+      </c>
+      <c r="D22" s="4">
+        <v>17.485190642834951</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.8177583005067861</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.440227600699691</v>
       </c>
       <c r="G22">
-        <v>107.30163032820271</v>
+        <v>67.253310059640043</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>14</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -1316,22 +1316,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>288.60156990445478</v>
+        <v>43.02296045162317</v>
       </c>
       <c r="C23" s="4">
-        <v>60.71656800556471</v>
+        <v>76.829130251092352</v>
       </c>
       <c r="D23" s="4">
-        <v>9.1569871530421931</v>
+        <v>18.19797072629607</v>
       </c>
       <c r="E23" s="4">
-        <v>5.1071563079490563</v>
+        <v>25.228464870137319</v>
       </c>
       <c r="F23" s="4">
-        <v>7.9744621346677933</v>
+        <v>59.26819212253676</v>
       </c>
       <c r="G23">
-        <v>371.55674350567858</v>
+        <v>222.54671842168571</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1353,23 +1353,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3">
-        <v>45.442674676316862</v>
-      </c>
-      <c r="C24" s="3">
-        <v>14.34484347528381</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.1659236035522174</v>
-      </c>
-      <c r="E24" s="3">
-        <v>21.012995156440351</v>
-      </c>
-      <c r="F24" s="3">
-        <v>28.842517272698409</v>
+      <c r="B24" s="4">
+        <v>103.754098997852</v>
+      </c>
+      <c r="C24" s="4">
+        <v>29.228614166831541</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44.311921887810662</v>
+      </c>
+      <c r="E24" s="4">
+        <v>39.211174577679451</v>
+      </c>
+      <c r="F24" s="4">
+        <v>67.748908174281468</v>
       </c>
       <c r="G24">
-        <v>118.80895418429159</v>
+        <v>284.25471780445508</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1392,22 +1392,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>452.39743309518582</v>
+        <v>39.981477222587642</v>
       </c>
       <c r="C25" s="3">
-        <v>39.498959440191413</v>
+        <v>5.3016625685719427</v>
       </c>
       <c r="D25" s="3">
-        <v>9.5348639275527844</v>
+        <v>2.5290584989347469</v>
       </c>
       <c r="E25" s="3">
-        <v>8.1687661297202929</v>
+        <v>2.3379033805653018</v>
       </c>
       <c r="F25" s="3">
-        <v>7.3205355090429736</v>
+        <v>3.260084175204458</v>
       </c>
       <c r="G25">
-        <v>516.92055810169336</v>
+        <v>53.410185845864092</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1429,23 +1429,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>29.81524263833029</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8.1853125646136107</v>
-      </c>
-      <c r="D26" s="4">
-        <v>9.6491134344592169</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3.8558676547553841</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3.0779581322965059</v>
+      <c r="B26" s="3">
+        <v>101.0842426037901</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18.967295444071361</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.3244801652160012</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.9955368376387399</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.412283158696459</v>
       </c>
       <c r="G26">
-        <v>54.583494424455012</v>
+        <v>126.78383820941271</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>18</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1467,23 +1467,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>31.94975268472804</v>
-      </c>
-      <c r="C27" s="4">
-        <v>59.310719726376931</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9.7117203903630926</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6.1502637128564936</v>
-      </c>
-      <c r="F27" s="4">
-        <v>9.9734900852836521</v>
+      <c r="B27" s="3">
+        <v>7.9674277853396953</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.6520473302187408</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.865482515707463</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.0185080185836757</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.7447816384681651</v>
       </c>
       <c r="G27">
-        <v>117.0959465996082</v>
+        <v>25.248247288317749</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>13</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1506,22 +1506,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>189.46523686814641</v>
+        <v>137.0632167017296</v>
       </c>
       <c r="C28" s="3">
-        <v>33.438253216169777</v>
+        <v>35.839037628601353</v>
       </c>
       <c r="D28" s="3">
-        <v>10.70457458873766</v>
+        <v>5.1596876655562589</v>
       </c>
       <c r="E28" s="3">
-        <v>8.3070392044103052</v>
+        <v>2.8191775996352701</v>
       </c>
       <c r="F28" s="3">
-        <v>9.7972156603466445</v>
+        <v>3.6875317895145932</v>
       </c>
       <c r="G28">
-        <v>251.7123195378108</v>
+        <v>184.56865138503699</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1544,22 +1544,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>211.9244719022669</v>
+        <v>286.67611929658051</v>
       </c>
       <c r="C29" s="3">
-        <v>39.797882852708319</v>
+        <v>38.453123007075739</v>
       </c>
       <c r="D29" s="3">
-        <v>10.77155651056437</v>
+        <v>5.4324036775486926</v>
       </c>
       <c r="E29" s="3">
-        <v>16.49070606877887</v>
+        <v>5.5652426293633539</v>
       </c>
       <c r="F29" s="3">
-        <v>18.712014045663452</v>
+        <v>6.9103119328958016</v>
       </c>
       <c r="G29">
-        <v>297.69663137998191</v>
+        <v>343.03720054346411</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1582,22 +1582,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>24.312675710359361</v>
+        <v>261.62856568693951</v>
       </c>
       <c r="C30" s="3">
-        <v>11.744229393336109</v>
+        <v>44.584497217001463</v>
       </c>
       <c r="D30" s="3">
-        <v>12.288956459212621</v>
+        <v>6.0958200777496057</v>
       </c>
       <c r="E30" s="3">
-        <v>19.625354170930599</v>
+        <v>11.77266209310533</v>
       </c>
       <c r="F30" s="3">
-        <v>23.87819307245142</v>
+        <v>10.14820503261334</v>
       </c>
       <c r="G30">
-        <v>91.849408806290086</v>
+        <v>334.22975010740919</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1620,22 +1620,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>321.41196380619368</v>
+        <v>34.310157499772927</v>
       </c>
       <c r="C31" s="3">
-        <v>31.09694118317822</v>
+        <v>7.8537264850598882</v>
       </c>
       <c r="D31" s="3">
-        <v>12.782748076841219</v>
+        <v>7.4366716624603599</v>
       </c>
       <c r="E31" s="3">
-        <v>12.31176024791702</v>
+        <v>15.78426664076783</v>
       </c>
       <c r="F31" s="3">
-        <v>14.24512050431664</v>
+        <v>15.514275159202169</v>
       </c>
       <c r="G31">
-        <v>391.84853381844692</v>
+        <v>80.899097447263159</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1657,23 +1657,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>65.46043449099048</v>
-      </c>
-      <c r="C32" s="4">
-        <v>20.734158398029411</v>
-      </c>
-      <c r="D32" s="4">
-        <v>13.49303666475314</v>
-      </c>
-      <c r="E32" s="4">
-        <v>18.572927090301199</v>
-      </c>
-      <c r="F32" s="4">
-        <v>35.222399060961813</v>
+      <c r="B32" s="3">
+        <v>63.153111760883313</v>
+      </c>
+      <c r="C32" s="3">
+        <v>25.35703763766767</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9.1047326362347398</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.7876187975045346</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.8991294959124616</v>
       </c>
       <c r="G32">
-        <v>153.48295570503601</v>
+        <v>107.30163032820271</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1695,23 +1695,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>143.79961507722041</v>
-      </c>
-      <c r="C33" s="4">
-        <v>71.507155870093868</v>
-      </c>
-      <c r="D33" s="4">
-        <v>15.429884680958191</v>
-      </c>
-      <c r="E33" s="4">
-        <v>9.7117163526209591</v>
-      </c>
-      <c r="F33" s="4">
-        <v>16.202824095253469</v>
+      <c r="B33" s="3">
+        <v>45.442674676316862</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14.34484347528381</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9.1659236035522174</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21.012995156440351</v>
+      </c>
+      <c r="F33" s="3">
+        <v>28.842517272698409</v>
       </c>
       <c r="G33">
-        <v>256.65119607614679</v>
+        <v>118.80895418429159</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1733,23 +1733,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>233.86573170279149</v>
-      </c>
-      <c r="C34" s="4">
-        <v>68.19021458932356</v>
-      </c>
-      <c r="D34" s="4">
-        <v>15.65676498149273</v>
-      </c>
-      <c r="E34" s="4">
-        <v>11.97526322811893</v>
-      </c>
-      <c r="F34" s="4">
-        <v>19.744465684278691</v>
+      <c r="B34" s="3">
+        <v>452.39743309518582</v>
+      </c>
+      <c r="C34" s="3">
+        <v>39.498959440191413</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9.5348639275527844</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.1687661297202929</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7.3205355090429736</v>
       </c>
       <c r="G34">
-        <v>349.43244018600552</v>
+        <v>516.92055810169336</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>21</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1772,22 +1772,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>143.7792256375719</v>
+        <v>189.46523686814641</v>
       </c>
       <c r="C35" s="3">
-        <v>43.204183201011148</v>
+        <v>33.438253216169777</v>
       </c>
       <c r="D35" s="3">
-        <v>16.13387801789505</v>
+        <v>10.70457458873766</v>
       </c>
       <c r="E35" s="3">
-        <v>10.345746559496471</v>
+        <v>8.3070392044103052</v>
       </c>
       <c r="F35" s="3">
-        <v>4.7413186179903377</v>
+        <v>9.7972156603466445</v>
       </c>
       <c r="G35">
-        <v>218.20435203396491</v>
+        <v>251.7123195378108</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1809,23 +1809,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>84.224582241512081</v>
-      </c>
-      <c r="C36" s="4">
-        <v>243.8629351197234</v>
-      </c>
-      <c r="D36" s="4">
-        <v>16.207771527827511</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8.5984115619792512</v>
-      </c>
-      <c r="F36" s="4">
-        <v>6.656226771786045</v>
+      <c r="B36" s="3">
+        <v>211.9244719022669</v>
+      </c>
+      <c r="C36" s="3">
+        <v>39.797882852708319</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10.77155651056437</v>
+      </c>
+      <c r="E36" s="3">
+        <v>16.49070606877887</v>
+      </c>
+      <c r="F36" s="3">
+        <v>18.712014045663452</v>
       </c>
       <c r="G36">
-        <v>359.54992722282827</v>
+        <v>297.69663137998191</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1834,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1848,22 +1848,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>150.45949121348059</v>
+        <v>24.312675710359361</v>
       </c>
       <c r="C37" s="3">
-        <v>41.7201782627453</v>
+        <v>11.744229393336109</v>
       </c>
       <c r="D37" s="3">
-        <v>16.687240023196679</v>
+        <v>12.288956459212621</v>
       </c>
       <c r="E37" s="3">
-        <v>36.896249416253923</v>
+        <v>19.625354170930599</v>
       </c>
       <c r="F37" s="3">
-        <v>53.774373265095058</v>
+        <v>23.87819307245142</v>
       </c>
       <c r="G37">
-        <v>299.53753218077162</v>
+        <v>91.849408806290086</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1885,23 +1885,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>31.9397724484657</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10.57036106713292</v>
-      </c>
-      <c r="D38" s="4">
-        <v>17.485190642834951</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3.8177583005067861</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3.440227600699691</v>
+      <c r="B38" s="3">
+        <v>321.41196380619368</v>
+      </c>
+      <c r="C38" s="3">
+        <v>31.09694118317822</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12.782748076841219</v>
+      </c>
+      <c r="E38" s="3">
+        <v>12.31176024791702</v>
+      </c>
+      <c r="F38" s="3">
+        <v>14.24512050431664</v>
       </c>
       <c r="G38">
-        <v>67.253310059640043</v>
+        <v>391.84853381844692</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1923,23 +1923,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>43.02296045162317</v>
-      </c>
-      <c r="C39" s="4">
-        <v>76.829130251092352</v>
-      </c>
-      <c r="D39" s="4">
-        <v>18.19797072629607</v>
-      </c>
-      <c r="E39" s="4">
-        <v>25.228464870137319</v>
-      </c>
-      <c r="F39" s="4">
-        <v>59.26819212253676</v>
+      <c r="B39" s="3">
+        <v>143.7792256375719</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43.204183201011148</v>
+      </c>
+      <c r="D39" s="3">
+        <v>16.13387801789505</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10.345746559496471</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.7413186179903377</v>
       </c>
       <c r="G39">
-        <v>222.54671842168571</v>
+        <v>218.20435203396491</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>23</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
@@ -1962,22 +1962,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>36.186623163463622</v>
+        <v>150.45949121348059</v>
       </c>
       <c r="C40" s="3">
-        <v>12.936831093124461</v>
+        <v>41.7201782627453</v>
       </c>
       <c r="D40" s="3">
-        <v>18.415868224501001</v>
+        <v>16.687240023196679</v>
       </c>
       <c r="E40" s="3">
-        <v>14.29092378934032</v>
+        <v>36.896249416253923</v>
       </c>
       <c r="F40" s="3">
-        <v>13.248453384844909</v>
+        <v>53.774373265095058</v>
       </c>
       <c r="G40">
-        <v>95.078699655274306</v>
+        <v>299.53753218077162</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -2000,22 +2000,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>73.281065177488486</v>
+        <v>36.186623163463622</v>
       </c>
       <c r="C41" s="3">
-        <v>19.96893336836737</v>
+        <v>12.936831093124461</v>
       </c>
       <c r="D41" s="3">
-        <v>19.257865109914821</v>
+        <v>18.415868224501001</v>
       </c>
       <c r="E41" s="3">
-        <v>16.23815479217604</v>
+        <v>14.29092378934032</v>
       </c>
       <c r="F41" s="3">
-        <v>19.05241557798875</v>
+        <v>13.248453384844909</v>
       </c>
       <c r="G41">
-        <v>147.79843402593539</v>
+        <v>95.078699655274306</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2038,22 +2038,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>687.47724834636756</v>
+        <v>73.281065177488486</v>
       </c>
       <c r="C42" s="3">
-        <v>133.49548474016109</v>
+        <v>19.96893336836737</v>
       </c>
       <c r="D42" s="3">
-        <v>20.083582983897099</v>
+        <v>19.257865109914821</v>
       </c>
       <c r="E42" s="3">
-        <v>15.052652524401971</v>
+        <v>16.23815479217604</v>
       </c>
       <c r="F42" s="3">
-        <v>26.737330495747951</v>
+        <v>19.05241557798875</v>
       </c>
       <c r="G42">
-        <v>882.84629909057571</v>
+        <v>147.79843402593539</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2076,22 +2076,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>257.392058933687</v>
+        <v>687.47724834636756</v>
       </c>
       <c r="C43" s="3">
-        <v>83.530444840553287</v>
+        <v>133.49548474016109</v>
       </c>
       <c r="D43" s="3">
-        <v>24.743163431635121</v>
+        <v>20.083582983897099</v>
       </c>
       <c r="E43" s="3">
-        <v>18.984131362277932</v>
+        <v>15.052652524401971</v>
       </c>
       <c r="F43" s="3">
-        <v>22.589593937040689</v>
+        <v>26.737330495747951</v>
       </c>
       <c r="G43">
-        <v>407.23939250519408</v>
+        <v>882.84629909057571</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2114,22 +2114,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>372.36510681806749</v>
+        <v>257.392058933687</v>
       </c>
       <c r="C44" s="3">
-        <v>138.3792239144982</v>
+        <v>83.530444840553287</v>
       </c>
       <c r="D44" s="3">
-        <v>25.776382469275308</v>
+        <v>24.743163431635121</v>
       </c>
       <c r="E44" s="3">
-        <v>6.6205533411856274</v>
+        <v>18.984131362277932</v>
       </c>
       <c r="F44" s="3">
-        <v>6.0940819397329449</v>
+        <v>22.589593937040689</v>
       </c>
       <c r="G44">
-        <v>549.23534848275972</v>
+        <v>407.23939250519408</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2151,23 +2151,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>103.754098997852</v>
-      </c>
-      <c r="C45" s="4">
-        <v>29.228614166831541</v>
-      </c>
-      <c r="D45" s="4">
-        <v>44.311921887810662</v>
-      </c>
-      <c r="E45" s="4">
-        <v>39.211174577679451</v>
-      </c>
-      <c r="F45" s="4">
-        <v>67.748908174281468</v>
+      <c r="B45" s="3">
+        <v>372.36510681806749</v>
+      </c>
+      <c r="C45" s="3">
+        <v>138.3792239144982</v>
+      </c>
+      <c r="D45" s="3">
+        <v>25.776382469275308</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6.6205533411856274</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6.0940819397329449</v>
       </c>
       <c r="G45">
-        <v>284.25471780445508</v>
+        <v>549.23534848275972</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>12</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>13</v>
@@ -2376,9 +2376,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
-    <sortCondition ref="D2:D61"/>
-    <sortCondition ref="F2:F61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
